--- a/res/page/车场运营/车辆分类管理/CarTypePage.xlsx
+++ b/res/page/车场运营/车辆分类管理/CarTypePage.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="94">
   <si>
     <t>别名</t>
   </si>
@@ -305,10 +305,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -333,8 +333,120 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -348,44 +460,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -395,86 +469,12 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -491,187 +491,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -715,26 +715,44 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -765,35 +783,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -805,10 +805,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -817,133 +817,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1325,8 +1325,8 @@
   <sheetPr/>
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>

--- a/res/page/车场运营/车辆分类管理/CarTypePage.xlsx
+++ b/res/page/车场运营/车辆分类管理/CarTypePage.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="96">
   <si>
     <t>别名</t>
   </si>
@@ -159,13 +159,13 @@
     <t>重新同步</t>
   </si>
   <si>
-    <t>//div[@id='supportParkTable']//span[text()='重新同步']</t>
+    <t>//div[@id='synchronismDetialTable']//span[text()='重新同步']</t>
   </si>
   <si>
     <t>同步详情列表</t>
   </si>
   <si>
-    <t>//div[@id='supportParkTable']</t>
+    <t>//div[@id='synchronismDetialTable']</t>
   </si>
   <si>
     <t>编辑</t>
@@ -219,7 +219,7 @@
     <t>选择停车场</t>
   </si>
   <si>
-    <t>//*[@id='app']//label[contains(text(),'选择停车场')]/following-sibling::*[1]//button</t>
+    <t>//*[@id='app']//label[contains(text(),'支持车场')]/following-sibling::*[1]//button</t>
   </si>
   <si>
     <t>停车场通道</t>
@@ -261,7 +261,7 @@
     <t>选择停车场下拉框</t>
   </si>
   <si>
-    <t>//span[@class='tree-dropdown']//span[contains(text(),'请选择停车场')]</t>
+    <t>//form[@class='form-inline']/span[1]//i</t>
   </si>
   <si>
     <t>停车场列表</t>
@@ -298,6 +298,12 @@
   </si>
   <si>
     <t>//*[@id="app"]//a[text()= "告警设置"]</t>
+  </si>
+  <si>
+    <t>下一步</t>
+  </si>
+  <si>
+    <t>//button[text()='下一步&gt;']</t>
   </si>
 </sst>
 </file>
@@ -306,8 +312,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -333,6 +339,36 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -341,9 +377,70 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -355,98 +452,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -468,9 +475,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -491,187 +497,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -700,41 +706,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -758,6 +736,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -772,13 +765,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -805,10 +811,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -817,137 +823,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -973,6 +979,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1323,10 +1332,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1849,6 +1858,17 @@
       </c>
       <c r="C46" s="5" t="s">
         <v>93</v>
+      </c>
+    </row>
+    <row r="47" ht="26" customHeight="1" spans="1:3">
+      <c r="A47" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/res/page/车场运营/车辆分类管理/CarTypePage.xlsx
+++ b/res/page/车场运营/车辆分类管理/CarTypePage.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="97">
   <si>
     <t>别名</t>
   </si>
@@ -153,37 +153,37 @@
     <t>同步详情</t>
   </si>
   <si>
-    <t>//*[@id="parkBlacklistTable" or @id='parkVisitorlistTable'or @id='specialCarTypeConfigTable']//div[@class='el-table__fixed-right']//button[@title='同步详情']</t>
+    <t>//div[contains(@id,'table-cache')]//div[@class='el-table__fixed-right']//button[@title='同步详情']</t>
   </si>
   <si>
     <t>重新同步</t>
   </si>
   <si>
-    <t>//div[@id='synchronismDetialTable']//span[text()='重新同步']</t>
+    <t>//div[contains(@id,'table-cache')]//span[text()='重新同步']</t>
   </si>
   <si>
     <t>同步详情列表</t>
   </si>
   <si>
-    <t>//div[@id='synchronismDetialTable']</t>
+    <t>//div[contains(@id,'table-cache')]</t>
   </si>
   <si>
     <t>编辑</t>
   </si>
   <si>
-    <t>//*[@id='emergencyCarnoTable'or @id="parkBlacklistTable" or @id='parkVisitorlistTable'or @id='specialCarTypeConfigTable']//div[@class='el-table__fixed-right']//i[@class='icon-edit']</t>
+    <t>//div[contains(@id,'table-cache')]//i[@class='icon-edit']</t>
   </si>
   <si>
     <t>删除</t>
   </si>
   <si>
-    <t>//*[@id='emergencyCarnoTable'or @id="parkBlacklistTable" or @id='parkVisitorlistTable'or @id='specialCarTypeConfigTable']//div[@class='el-table__fixed-right']//i[@class='icon-delete']</t>
+    <t>//div[contains(@id,'table-cache')]//div[@class='el-table__fixed-right']//i[@class='icon-delete']</t>
   </si>
   <si>
     <t>查看</t>
   </si>
   <si>
-    <t>//*[@id="parkBlacklistTable" or @id='parkVisitorlistTable'or @id='specialCarTypeConfigTable']//div[contains(@class,'el-table__body-wrapper is-scrolling')]//span[contains(text(),'查看')]</t>
+    <t>//div[contains(@id,'table-cache')]//div[contains(@class,'el-table__body-wrapper is-scrolling')]//span[contains(text(),'查看')]</t>
   </si>
   <si>
     <t>新增特殊类型</t>
@@ -273,9 +273,6 @@
     <t>访客车辆记录列表</t>
   </si>
   <si>
-    <t>//div[@id='parkVisitorlistTable']</t>
-  </si>
-  <si>
     <t>导出</t>
   </si>
   <si>
@@ -291,7 +288,7 @@
     <t>后台指定车牌进场告警</t>
   </si>
   <si>
-    <t>//div[@class='el-dialog__body']//div[1]/span[text()='指定车牌进场告警']/following-sibling::*[1]</t>
+    <t>//div[@class='el-dialog__body']//div[2]/span[text()='进场告警']/following-sibling::*[1]</t>
   </si>
   <si>
     <t>告警设置</t>
@@ -303,7 +300,13 @@
     <t>下一步</t>
   </si>
   <si>
-    <t>//button[text()='下一步&gt;']</t>
+    <t>//button[text()='下一步']</t>
+  </si>
+  <si>
+    <t>指定车牌录入-停车场</t>
+  </si>
+  <si>
+    <t>//div[@class='modal-container']//label[text()='停车场']/following-sibling::*[1]//span</t>
   </si>
 </sst>
 </file>
@@ -311,10 +314,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -338,6 +341,134 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -346,88 +477,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -435,52 +484,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -497,187 +500,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -706,31 +709,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -750,17 +739,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -782,27 +789,23 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -811,10 +814,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -823,137 +826,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -979,9 +982,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1332,17 +1332,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="21.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="1" customWidth="1"/>
-    <col min="3" max="3" width="134.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="130.125" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1813,62 +1813,73 @@
         <v>4</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>85</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" ht="24" customHeight="1" spans="1:3">
       <c r="A43" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="44" ht="24" customHeight="1" spans="1:3">
       <c r="A44" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" s="5" t="s">
         <v>88</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="45" ht="24" customHeight="1" spans="1:3">
       <c r="A45" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="46" ht="19" customHeight="1" spans="1:3">
       <c r="A46" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C46" s="5" t="s">
+    </row>
+    <row r="47" ht="26" customHeight="1" spans="1:3">
+      <c r="A47" s="5" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="47" ht="26" customHeight="1" spans="1:3">
-      <c r="A47" s="9" t="s">
+      <c r="B47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C47" s="9" t="s">
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1" t="s">
         <v>95</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/res/page/车场运营/车辆分类管理/CarTypePage.xlsx
+++ b/res/page/车场运营/车辆分类管理/CarTypePage.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="98">
   <si>
     <t>别名</t>
   </si>
@@ -165,112 +165,115 @@
     <t>同步详情列表</t>
   </si>
   <si>
+    <t>//div[@class='modal-container']//div[contains(@id,'table-cache')]</t>
+  </si>
+  <si>
+    <t>编辑</t>
+  </si>
+  <si>
+    <t>//div[contains(@id,'table-cache')]//div[@class='el-table__fixed-right']//i[@class='icon-edit']</t>
+  </si>
+  <si>
+    <t>删除</t>
+  </si>
+  <si>
+    <t>//div[contains(@id,'table-cache')]//div[@class='el-table__fixed-right']//i[@class='icon-delete']</t>
+  </si>
+  <si>
+    <t>查看</t>
+  </si>
+  <si>
+    <t>//div[contains(@id,'table-cache')]//div[contains(@class,'el-table__body-wrapper is-scrolling')]//span[contains(text(),'查看')]</t>
+  </si>
+  <si>
+    <t>新增特殊类型</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]//a[contains(text(), "新增特殊类型")]</t>
+  </si>
+  <si>
+    <t>车场类型</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]//label[contains(text(),'车场类型')]/following-sibling::*[1]</t>
+  </si>
+  <si>
+    <t>特殊车辆类型选择</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]//label[@for ='vipGroupType' and contains(text(),'特殊车辆类型')]/following-sibling::*[1]</t>
+  </si>
+  <si>
+    <t>类型名称</t>
+  </si>
+  <si>
+    <t>//*[@id='app']//label[@for='name' and contains(text(),'类型名称')]/following-sibling::*[1]//input</t>
+  </si>
+  <si>
+    <t>简介</t>
+  </si>
+  <si>
+    <t>//*[@id='app']//label[contains(text(),'简介')]/following-sibling::*[1]//textarea</t>
+  </si>
+  <si>
+    <t>选择停车场</t>
+  </si>
+  <si>
+    <t>//*[@id='app']//label[contains(text(),'支持车场')]/following-sibling::*[1]//button</t>
+  </si>
+  <si>
+    <t>停车场通道</t>
+  </si>
+  <si>
+    <t>//ul[@id='ParkTree']</t>
+  </si>
+  <si>
+    <t>操作成功-提示</t>
+  </si>
+  <si>
+    <t>//div[@class='toast-wrapper']</t>
+  </si>
+  <si>
+    <t>保存-提示</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]//span[contains(text(),'保 存')]</t>
+  </si>
+  <si>
+    <t>确定-提示</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]//button[contains(text(),'确定')]</t>
+  </si>
+  <si>
+    <t>确认-提示</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]//button[contains(text(),'确认')or contains(text(),'确 认')]</t>
+  </si>
+  <si>
+    <t>确认-二级提示</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]//div[@class='modal-wrapper select-park-modal']//button[contains(text(),'确认')][1]</t>
+  </si>
+  <si>
+    <t>选择停车场下拉框</t>
+  </si>
+  <si>
+    <t>//form[@class='form-inline']/span[1]//i</t>
+  </si>
+  <si>
+    <t>停车场列表</t>
+  </si>
+  <si>
+    <t>//ul[@id='tableTree']</t>
+  </si>
+  <si>
+    <t>访客车辆记录列表</t>
+  </si>
+  <si>
     <t>//div[contains(@id,'table-cache')]</t>
-  </si>
-  <si>
-    <t>编辑</t>
-  </si>
-  <si>
-    <t>//div[contains(@id,'table-cache')]//i[@class='icon-edit']</t>
-  </si>
-  <si>
-    <t>删除</t>
-  </si>
-  <si>
-    <t>//div[contains(@id,'table-cache')]//div[@class='el-table__fixed-right']//i[@class='icon-delete']</t>
-  </si>
-  <si>
-    <t>查看</t>
-  </si>
-  <si>
-    <t>//div[contains(@id,'table-cache')]//div[contains(@class,'el-table__body-wrapper is-scrolling')]//span[contains(text(),'查看')]</t>
-  </si>
-  <si>
-    <t>新增特殊类型</t>
-  </si>
-  <si>
-    <t>//*[@id="app"]//a[contains(text(), "新增特殊类型")]</t>
-  </si>
-  <si>
-    <t>车场类型</t>
-  </si>
-  <si>
-    <t>//*[@id="app"]//label[contains(text(),'车场类型')]/following-sibling::*[1]</t>
-  </si>
-  <si>
-    <t>特殊车辆类型选择</t>
-  </si>
-  <si>
-    <t>//*[@id="app"]//label[@for ='vipGroupType' and contains(text(),'特殊车辆类型')]/following-sibling::*[1]</t>
-  </si>
-  <si>
-    <t>类型名称</t>
-  </si>
-  <si>
-    <t>//*[@id='app']//label[@for='name' and contains(text(),'类型名称')]/following-sibling::*[1]//input</t>
-  </si>
-  <si>
-    <t>简介</t>
-  </si>
-  <si>
-    <t>//*[@id='app']//label[contains(text(),'简介')]/following-sibling::*[1]//textarea</t>
-  </si>
-  <si>
-    <t>选择停车场</t>
-  </si>
-  <si>
-    <t>//*[@id='app']//label[contains(text(),'支持车场')]/following-sibling::*[1]//button</t>
-  </si>
-  <si>
-    <t>停车场通道</t>
-  </si>
-  <si>
-    <t>//ul[@id='ParkTree']</t>
-  </si>
-  <si>
-    <t>操作成功-提示</t>
-  </si>
-  <si>
-    <t>//div[@class='toast-wrapper']</t>
-  </si>
-  <si>
-    <t>保存-提示</t>
-  </si>
-  <si>
-    <t>//*[@id="app"]//span[contains(text(),'保 存')]</t>
-  </si>
-  <si>
-    <t>确定-提示</t>
-  </si>
-  <si>
-    <t>//*[@id="app"]//button[contains(text(),'确定')]</t>
-  </si>
-  <si>
-    <t>确认-提示</t>
-  </si>
-  <si>
-    <t>//*[@id="app"]//button[contains(text(),'确认')]</t>
-  </si>
-  <si>
-    <t>确认-二级提示</t>
-  </si>
-  <si>
-    <t>//*[@id="app"]//div[@class='modal-wrapper select-park-modal']//button[contains(text(),'确认')][1]</t>
-  </si>
-  <si>
-    <t>选择停车场下拉框</t>
-  </si>
-  <si>
-    <t>//form[@class='form-inline']/span[1]//i</t>
-  </si>
-  <si>
-    <t>停车场列表</t>
-  </si>
-  <si>
-    <t>//ul[@id='tableTree']</t>
-  </si>
-  <si>
-    <t>访客车辆记录列表</t>
   </si>
   <si>
     <t>导出</t>
@@ -314,10 +317,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -342,7 +345,74 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -356,6 +426,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -364,59 +472,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -429,61 +487,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -500,187 +503,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -709,17 +712,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -742,8 +750,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -766,8 +774,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -786,26 +809,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -814,10 +817,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -826,133 +829,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1334,8 +1337,8 @@
   <sheetPr/>
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1813,73 +1816,73 @@
         <v>4</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43" ht="24" customHeight="1" spans="1:3">
       <c r="A43" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44" ht="24" customHeight="1" spans="1:3">
       <c r="A44" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45" ht="24" customHeight="1" spans="1:3">
       <c r="A45" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="46" ht="19" customHeight="1" spans="1:3">
       <c r="A46" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="47" ht="26" customHeight="1" spans="1:3">
       <c r="A47" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/res/page/车场运营/车辆分类管理/CarTypePage.xlsx
+++ b/res/page/车场运营/车辆分类管理/CarTypePage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9765"/>
+    <workbookView windowWidth="21600" windowHeight="9840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="98">
   <si>
     <t>别名</t>
   </si>
@@ -165,112 +165,115 @@
     <t>同步详情列表</t>
   </si>
   <si>
+    <t>//h3[contains(text(),"同步详情")]/../..</t>
+  </si>
+  <si>
+    <t>编辑</t>
+  </si>
+  <si>
+    <t>//div[contains(@id,'table-cache')]//div[@class='el-table__fixed-right']//i[@class='icon-edit']</t>
+  </si>
+  <si>
+    <t>删除</t>
+  </si>
+  <si>
+    <t>//div[contains(@id,'table-cache')]//div[@class='el-table__fixed-right']//i[@class='icon-delete']</t>
+  </si>
+  <si>
+    <t>查看</t>
+  </si>
+  <si>
+    <t>//div[contains(@id,'table-cache')]//div[contains(@class,'el-table__body-wrapper is-scrolling')]//span[contains(text(),'查看')]</t>
+  </si>
+  <si>
+    <t>新增特殊类型</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]//a[contains(text(), "新增特殊类型")]</t>
+  </si>
+  <si>
+    <t>车场类型</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]//label[contains(text(),'车场类型')]/following-sibling::*[1]</t>
+  </si>
+  <si>
+    <t>特殊车辆类型选择</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]//label[@for ='vipGroupType' and contains(text(),'特殊车辆类型')]/following-sibling::*[1]</t>
+  </si>
+  <si>
+    <t>类型名称</t>
+  </si>
+  <si>
+    <t>//*[@id='app']//label[@for='name' and contains(text(),'类型名称')]/following-sibling::*[1]//input</t>
+  </si>
+  <si>
+    <t>简介</t>
+  </si>
+  <si>
+    <t>//*[@id='app']//label[contains(text(),'简介')]/following-sibling::*[1]//textarea</t>
+  </si>
+  <si>
+    <t>选择停车场</t>
+  </si>
+  <si>
+    <t>//*[@id='app']//label[contains(text(),'支持车场')]/following-sibling::*[1]//button</t>
+  </si>
+  <si>
+    <t>停车场通道</t>
+  </si>
+  <si>
+    <t>//ul[@id='ParkTree']</t>
+  </si>
+  <si>
+    <t>操作成功-提示</t>
+  </si>
+  <si>
+    <t>//div[@class='toast-wrapper']</t>
+  </si>
+  <si>
+    <t>保存-提示</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]//span[contains(text(),'保 存')]</t>
+  </si>
+  <si>
+    <t>确定-提示</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]//button[contains(text(),'确定')]</t>
+  </si>
+  <si>
+    <t>确认-提示</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]//button[contains(text(),'确认') or contains(text(),'确 认')]</t>
+  </si>
+  <si>
+    <t>确认-二级提示</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]//div[@class='modal-wrapper select-park-modal']//button[contains(text(),'确认')][1]</t>
+  </si>
+  <si>
+    <t>选择停车场下拉框</t>
+  </si>
+  <si>
+    <t>//form[@class='form-inline']/span[1]//i</t>
+  </si>
+  <si>
+    <t>停车场列表</t>
+  </si>
+  <si>
+    <t>//ul[@id='tableTree']</t>
+  </si>
+  <si>
+    <t>访客车辆记录列表</t>
+  </si>
+  <si>
     <t>//div[contains(@id,'table-cache')]</t>
-  </si>
-  <si>
-    <t>编辑</t>
-  </si>
-  <si>
-    <t>//div[contains(@id,'table-cache')]//i[@class='icon-edit']</t>
-  </si>
-  <si>
-    <t>删除</t>
-  </si>
-  <si>
-    <t>//div[contains(@id,'table-cache')]//div[@class='el-table__fixed-right']//i[@class='icon-delete']</t>
-  </si>
-  <si>
-    <t>查看</t>
-  </si>
-  <si>
-    <t>//div[contains(@id,'table-cache')]//div[contains(@class,'el-table__body-wrapper is-scrolling')]//span[contains(text(),'查看')]</t>
-  </si>
-  <si>
-    <t>新增特殊类型</t>
-  </si>
-  <si>
-    <t>//*[@id="app"]//a[contains(text(), "新增特殊类型")]</t>
-  </si>
-  <si>
-    <t>车场类型</t>
-  </si>
-  <si>
-    <t>//*[@id="app"]//label[contains(text(),'车场类型')]/following-sibling::*[1]</t>
-  </si>
-  <si>
-    <t>特殊车辆类型选择</t>
-  </si>
-  <si>
-    <t>//*[@id="app"]//label[@for ='vipGroupType' and contains(text(),'特殊车辆类型')]/following-sibling::*[1]</t>
-  </si>
-  <si>
-    <t>类型名称</t>
-  </si>
-  <si>
-    <t>//*[@id='app']//label[@for='name' and contains(text(),'类型名称')]/following-sibling::*[1]//input</t>
-  </si>
-  <si>
-    <t>简介</t>
-  </si>
-  <si>
-    <t>//*[@id='app']//label[contains(text(),'简介')]/following-sibling::*[1]//textarea</t>
-  </si>
-  <si>
-    <t>选择停车场</t>
-  </si>
-  <si>
-    <t>//*[@id='app']//label[contains(text(),'支持车场')]/following-sibling::*[1]//button</t>
-  </si>
-  <si>
-    <t>停车场通道</t>
-  </si>
-  <si>
-    <t>//ul[@id='ParkTree']</t>
-  </si>
-  <si>
-    <t>操作成功-提示</t>
-  </si>
-  <si>
-    <t>//div[@class='toast-wrapper']</t>
-  </si>
-  <si>
-    <t>保存-提示</t>
-  </si>
-  <si>
-    <t>//*[@id="app"]//span[contains(text(),'保 存')]</t>
-  </si>
-  <si>
-    <t>确定-提示</t>
-  </si>
-  <si>
-    <t>//*[@id="app"]//button[contains(text(),'确定')]</t>
-  </si>
-  <si>
-    <t>确认-提示</t>
-  </si>
-  <si>
-    <t>//*[@id="app"]//button[contains(text(),'确认')]</t>
-  </si>
-  <si>
-    <t>确认-二级提示</t>
-  </si>
-  <si>
-    <t>//*[@id="app"]//div[@class='modal-wrapper select-park-modal']//button[contains(text(),'确认')][1]</t>
-  </si>
-  <si>
-    <t>选择停车场下拉框</t>
-  </si>
-  <si>
-    <t>//form[@class='form-inline']/span[1]//i</t>
-  </si>
-  <si>
-    <t>停车场列表</t>
-  </si>
-  <si>
-    <t>//ul[@id='tableTree']</t>
-  </si>
-  <si>
-    <t>访客车辆记录列表</t>
   </si>
   <si>
     <t>导出</t>
@@ -314,10 +317,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -342,7 +345,66 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -356,6 +418,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -364,8 +441,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -379,59 +457,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -445,17 +473,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -468,22 +487,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -500,25 +503,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -536,55 +623,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -596,6 +653,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -608,79 +677,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -705,6 +708,30 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -742,8 +769,19 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -767,41 +805,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -814,10 +817,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -826,133 +829,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1334,8 +1337,8 @@
   <sheetPr/>
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1813,73 +1816,73 @@
         <v>4</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43" ht="24" customHeight="1" spans="1:3">
       <c r="A43" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44" ht="24" customHeight="1" spans="1:3">
       <c r="A44" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45" ht="24" customHeight="1" spans="1:3">
       <c r="A45" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="46" ht="19" customHeight="1" spans="1:3">
       <c r="A46" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="47" ht="26" customHeight="1" spans="1:3">
       <c r="A47" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/res/page/车场运营/车辆分类管理/CarTypePage.xlsx
+++ b/res/page/车场运营/车辆分类管理/CarTypePage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9765"/>
+    <workbookView windowWidth="20925" windowHeight="9840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -317,10 +317,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -345,7 +345,74 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -360,24 +427,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -390,66 +443,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -464,14 +466,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -480,13 +474,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -503,6 +503,108 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -515,175 +617,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -712,22 +712,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -743,15 +738,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -773,24 +759,29 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -809,6 +800,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -817,10 +817,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -829,133 +829,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1337,8 +1337,8 @@
   <sheetPr/>
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
